--- a/biology/Médecine/Rickettsia_rickettsii/Rickettsia_rickettsii.xlsx
+++ b/biology/Médecine/Rickettsia_rickettsii/Rickettsia_rickettsii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agent infectieux normal des rongeurs sauvages, Rickettsia rickettsii est sporadiquement transmise à l'homme par la piqûre (ou l'écrasement) de la tique Dermacentor andersoni déterminant la "fièvre pourprée des montagnes rocheuses", fièvre exanthématique rurale et estivale, type des "fièvres pourprées du Nouveau-Monde".
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution géographique et importance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au type d'étude décrit d'abord des vallées et du piémont (plaine alluviale au pied d'un édifice montagneux) des Montagnes Rocheuses, forme rare mais grave de l'Ouest des États-Unis, on a rattaché depuis les atteintes bénignes et fréquentes de l'Est des États-Unis et l'affection grave sud-américaine isolée, à tort, sous le nom de "typhus de Sao Paulo".
 Avant l'antibiothérapie, "pourprée de l'Ouest" et "typhus de Sao Paulo" étaient redoutés, leur taux de mortalité atteignant souvent 90 %, alors qu'il ne dépassait pas 20 % dans les formes de l'Est des États-Unis. Actuellement, les formes traitées ne sont mortelles que dans 5 % des cas.
@@ -543,7 +557,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une incubation muette d'une semaine en moyenne, l'invasion est brutale et spectaculaire, avec frissons, état vertigineux, vomissements et ascension thermique rapide à 40 °C.
 La période d'état prend d'abord l'aspect d'une infection grave avec :
@@ -583,7 +599,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En zone d'endémie, il est assez facile. On éliminera surtout le typhus murin, moins grave dans sa symptomatologie.
 Le laboratoire donnera une confirmation du "groupe des fièvres pourprées" en constatant l'agglutination du proteus X2.
@@ -615,7 +633,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chloramphénicol était le médicament de choix en 1980.
  Portail de la microbiologie   Portail de la médecine                    </t>
